--- a/data/output/FV2304_FV2210/UTILMD/11223.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11223.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="245">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="245">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -841,6 +841,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U219" totalsRowShown="0">
+  <autoFilter ref="A1:U219"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,7 +1160,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11018,5 +11051,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11223.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11223.xlsx
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4747,22 +4747,22 @@
       <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K61" s="6" t="s">
@@ -4771,19 +4771,19 @@
       <c r="L61" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>220</v>
       </c>
       <c r="V61" s="6" t="s">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5163,7 +5163,7 @@
         <v>237</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5355,7 +5355,7 @@
         <v>239</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5493,7 +5493,7 @@
         <v>240</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7015,7 +7015,7 @@
         <v>239</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7667,7 +7667,7 @@
         <v>240</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7951,7 +7951,7 @@
         <v>242</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8091,7 +8091,7 @@
         <v>243</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8389,7 +8389,7 @@
         <v>240</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9921,7 +9921,7 @@
         <v>240</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10205,7 +10205,7 @@
         <v>244</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -10639,7 +10639,7 @@
         <v>240</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -11987,7 +11987,7 @@
         <v>240</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N217" s="2"/>
